--- a/data/NAGFORM_MANUAL - Image Captions.xlsx
+++ b/data/NAGFORM_MANUAL - Image Captions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfsi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\multimodal-rag\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7264C8A4-23AA-4BF9-9D62-0646BB46EDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AECD142-B1C1-45AC-966B-305124436A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3E7C8345-0873-4E32-9BCA-40D5869365BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E7C8345-0873-4E32-9BCA-40D5869365BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,15 +1113,15 @@
   <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+      <selection activeCell="D4" sqref="A1:D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="4" width="105.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
